--- a/output/HSTECH_核心财务数据_2024.xlsx
+++ b/output/HSTECH_核心财务数据_2024.xlsx
@@ -628,7 +628,7 @@
         <v>382.94491</v>
       </c>
       <c r="E10" t="n">
-        <v>21.91471</v>
+        <v>35.24536</v>
       </c>
     </row>
     <row r="11">
